--- a/Test Data/Care Support.xlsx
+++ b/Test Data/Care Support.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B2BFA5-D366-47F5-9615-E71FD600A86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0ECA2B-AE1D-4464-B7D6-F6A3E5E41CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{66599CB7-464D-4AD4-B81D-0D79C9E481C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{66599CB7-464D-4AD4-B81D-0D79C9E481C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$C$3</definedName>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Weekly Report Care Support</t>
   </si>
@@ -58,22 +57,34 @@
     <t>PPT update - Care Support</t>
   </si>
   <si>
+    <t>IRs</t>
+  </si>
+  <si>
     <t>Poster Making</t>
   </si>
   <si>
     <t>Care Support</t>
   </si>
   <si>
-    <t>nn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Specify Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Type 1 For Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Specify Duration in Mins</t>
+    <t xml:space="preserve">Calls </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emails </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Minutes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Tasks </t>
+  </si>
+  <si>
+    <t>ss</t>
   </si>
   <si>
     <t>Specify Task</t>
@@ -82,44 +93,26 @@
     <t>Specify In Brief</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>Calls</t>
-  </si>
-  <si>
-    <t>Emails</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-  <si>
-    <t>Meeting Minutes</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>Other Tasks</t>
-  </si>
-  <si>
-    <t>Irs</t>
-  </si>
-  <si>
-    <t>Textarea</t>
-  </si>
-  <si>
-    <t>Number</t>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>Specify Duration in Mins</t>
+  </si>
+  <si>
+    <t>Specify Counts</t>
+  </si>
+  <si>
+    <t>Type 1 for Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,19 +128,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -168,7 +160,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,7 +480,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,24 +491,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -536,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -544,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -566,10 +560,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -579,8 +573,8 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -590,8 +584,8 @@
       <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -601,8 +595,8 @@
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -610,10 +604,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -621,10 +615,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -632,10 +626,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -643,10 +637,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -654,10 +648,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -665,73 +659,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08EBFFE-F1E6-4F7F-8D78-AD8CA25FC144}">
-  <dimension ref="C2:P2"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Test Data/Care Support.xlsx
+++ b/Test Data/Care Support.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0ECA2B-AE1D-4464-B7D6-F6A3E5E41CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAA8476-AF63-4E6C-AE08-0EE1616CC386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{66599CB7-464D-4AD4-B81D-0D79C9E481C2}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>Specify Task</t>
   </si>
   <si>
-    <t>Specify In Brief</t>
-  </si>
-  <si>
     <t>hh</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Type 1 for Done</t>
+  </si>
+  <si>
+    <t>Specify in Brief</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,13 +502,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -519,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -530,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -541,7 +541,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -552,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -563,7 +563,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -574,7 +574,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -607,7 +607,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -618,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -629,7 +629,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -662,7 +662,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Care Support.xlsx
+++ b/Test Data/Care Support.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAA8476-AF63-4E6C-AE08-0EE1616CC386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8050ABA-A913-4394-849C-601653C5BBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{66599CB7-464D-4AD4-B81D-0D79C9E481C2}"/>
   </bookViews>
@@ -102,10 +102,10 @@
     <t>Specify Counts</t>
   </si>
   <si>
-    <t>Type 1 for Done</t>
-  </si>
-  <si>
     <t>Specify in Brief</t>
+  </si>
+  <si>
+    <t>Type 1 For Done</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +574,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -662,7 +662,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
